--- a/ClosedXML.Tests/Resource/Examples/Misc/TabColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/TabColors.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:tabColor rgb="FFFF0000"/>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:tabColor theme="6"/>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:tabColor indexed="24"/>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:tabColor rgb="FF171717"/>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/TabColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/TabColors.xlsx
@@ -6,10 +6,10 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Red" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Accent3" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Indexed" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Argb" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Red" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Accent3" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Indexed" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Argb" sheetId="4" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
